--- a/contratos/contratos-8-2013.xlsx
+++ b/contratos/contratos-8-2013.xlsx
@@ -682,7 +682,7 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>MAGRI HECTOR RAMON</t>
@@ -697,10 +697,10 @@
     <t>PEREZ DANIEL RUBEN</t>
   </si>
   <si>
-    <t>RAMIREZ CLAUDIA, RAMIREZ CESAR Y RAMIREZ VERONICA S.H.</t>
-  </si>
-  <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>RAMIREZ CLAUDIA. RAMIREZ CESAR Y RAMIREZ VERONICA SH</t>
+  </si>
+  <si>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>YLUM S.A.</t>
@@ -802,10 +802,10 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>RODE NELSON FEDERICO</t>
@@ -835,13 +835,13 @@
     <t>METRALLE GRISELDA BEATRIZ</t>
   </si>
   <si>
-    <t>TRABICHET MARIA, VERGARA ADEL Y OTRA</t>
+    <t>TRABICHET MARIA. VERGARA ADEL Y OTRA</t>
   </si>
   <si>
     <t>EICHHORST ROBERTO DIONISIO</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>BERGER S. A.</t>
@@ -1171,7 +1171,7 @@
     <t>GENESIS</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>PINTURERIA URUGUAY / ARCO IRIS</t>
@@ -1342,667 +1342,667 @@
     <t>104</t>
   </si>
   <si>
-    <t>3.774,00</t>
-  </si>
-  <si>
-    <t>43.490,00</t>
-  </si>
-  <si>
-    <t>458.000,00</t>
-  </si>
-  <si>
-    <t>42.531,50</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>17,45</t>
-  </si>
-  <si>
-    <t>2.036,42</t>
-  </si>
-  <si>
-    <t>121.000,00</t>
-  </si>
-  <si>
-    <t>2.999,99</t>
-  </si>
-  <si>
-    <t>31.165,08</t>
-  </si>
-  <si>
-    <t>87.334,15</t>
-  </si>
-  <si>
-    <t>29.750,00</t>
-  </si>
-  <si>
-    <t>39.478,94</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>5.955,70</t>
-  </si>
-  <si>
-    <t>9.624,44</t>
-  </si>
-  <si>
-    <t>493,00</t>
-  </si>
-  <si>
-    <t>13.630,75</t>
-  </si>
-  <si>
-    <t>9.810,00</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>179,00</t>
-  </si>
-  <si>
-    <t>797,00</t>
-  </si>
-  <si>
-    <t>238,90</t>
-  </si>
-  <si>
-    <t>529,22</t>
-  </si>
-  <si>
-    <t>84,99</t>
-  </si>
-  <si>
-    <t>51,90</t>
-  </si>
-  <si>
-    <t>256,56</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>57.290,00</t>
-  </si>
-  <si>
-    <t>42.338,32</t>
-  </si>
-  <si>
-    <t>275,00</t>
-  </si>
-  <si>
-    <t>2.384,58</t>
-  </si>
-  <si>
-    <t>28,80</t>
-  </si>
-  <si>
-    <t>25,04</t>
-  </si>
-  <si>
-    <t>2.297,09</t>
-  </si>
-  <si>
-    <t>756,00</t>
-  </si>
-  <si>
-    <t>21.024,50</t>
-  </si>
-  <si>
-    <t>39.627,25</t>
-  </si>
-  <si>
-    <t>280,00</t>
-  </si>
-  <si>
-    <t>16.177,15</t>
-  </si>
-  <si>
-    <t>801,00</t>
-  </si>
-  <si>
-    <t>295,22</t>
-  </si>
-  <si>
-    <t>8.778,76</t>
-  </si>
-  <si>
-    <t>618,00</t>
-  </si>
-  <si>
-    <t>980,00</t>
-  </si>
-  <si>
-    <t>1.394,49</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>41,60</t>
-  </si>
-  <si>
-    <t>830,00</t>
-  </si>
-  <si>
-    <t>96,00</t>
-  </si>
-  <si>
-    <t>1.397,20</t>
-  </si>
-  <si>
-    <t>287,84</t>
-  </si>
-  <si>
-    <t>23,63</t>
-  </si>
-  <si>
-    <t>45,21</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>115,12</t>
-  </si>
-  <si>
-    <t>13,30</t>
-  </si>
-  <si>
-    <t>1.936,10</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>208,35</t>
-  </si>
-  <si>
-    <t>65,00</t>
-  </si>
-  <si>
-    <t>899,64</t>
-  </si>
-  <si>
-    <t>40,48</t>
-  </si>
-  <si>
-    <t>380,00</t>
-  </si>
-  <si>
-    <t>3.750,00</t>
-  </si>
-  <si>
-    <t>92,35</t>
-  </si>
-  <si>
-    <t>3.035,00</t>
-  </si>
-  <si>
-    <t>1.920,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>1.134,00</t>
-  </si>
-  <si>
-    <t>6.924,96</t>
-  </si>
-  <si>
-    <t>80,40</t>
-  </si>
-  <si>
-    <t>2.881,40</t>
-  </si>
-  <si>
-    <t>1.201,71</t>
-  </si>
-  <si>
-    <t>746,25</t>
-  </si>
-  <si>
-    <t>109,70</t>
-  </si>
-  <si>
-    <t>335,00</t>
-  </si>
-  <si>
-    <t>311,88</t>
-  </si>
-  <si>
-    <t>72,00</t>
-  </si>
-  <si>
-    <t>320,00</t>
-  </si>
-  <si>
-    <t>8.288,00</t>
-  </si>
-  <si>
-    <t>7.820,66</t>
-  </si>
-  <si>
-    <t>960,00</t>
-  </si>
-  <si>
-    <t>302,50</t>
-  </si>
-  <si>
-    <t>1.355,00</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>51.312,00</t>
-  </si>
-  <si>
-    <t>8.360,00</t>
-  </si>
-  <si>
-    <t>34.437,00</t>
-  </si>
-  <si>
-    <t>11.000,00</t>
-  </si>
-  <si>
-    <t>98.090,00</t>
-  </si>
-  <si>
-    <t>4.574,70</t>
-  </si>
-  <si>
-    <t>1.485,00</t>
-  </si>
-  <si>
-    <t>44,00</t>
-  </si>
-  <si>
-    <t>899,00</t>
-  </si>
-  <si>
-    <t>367,50</t>
-  </si>
-  <si>
-    <t>1.508,00</t>
-  </si>
-  <si>
-    <t>246,80</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>57,95</t>
-  </si>
-  <si>
-    <t>110,00</t>
-  </si>
-  <si>
-    <t>78,00</t>
-  </si>
-  <si>
-    <t>42,00</t>
-  </si>
-  <si>
-    <t>282,00</t>
-  </si>
-  <si>
-    <t>20,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>62.000,00</t>
-  </si>
-  <si>
-    <t>222.570,00</t>
-  </si>
-  <si>
-    <t>4.650,60</t>
-  </si>
-  <si>
-    <t>3,79</t>
-  </si>
-  <si>
-    <t>19,20</t>
-  </si>
-  <si>
-    <t>49,68</t>
-  </si>
-  <si>
-    <t>15.654,25</t>
-  </si>
-  <si>
-    <t>178,92</t>
-  </si>
-  <si>
-    <t>18,80</t>
-  </si>
-  <si>
-    <t>1.522,64</t>
-  </si>
-  <si>
-    <t>21,45</t>
-  </si>
-  <si>
-    <t>2.896,00</t>
-  </si>
-  <si>
-    <t>460,00</t>
-  </si>
-  <si>
-    <t>305,00</t>
-  </si>
-  <si>
-    <t>31,40</t>
-  </si>
-  <si>
-    <t>34,00</t>
-  </si>
-  <si>
-    <t>1.415,70</t>
-  </si>
-  <si>
-    <t>102,00</t>
-  </si>
-  <si>
-    <t>216,00</t>
-  </si>
-  <si>
-    <t>1.648,75</t>
-  </si>
-  <si>
-    <t>3.237,00</t>
-  </si>
-  <si>
-    <t>20.587,59</t>
-  </si>
-  <si>
-    <t>4.571,15</t>
-  </si>
-  <si>
-    <t>112,00</t>
-  </si>
-  <si>
-    <t>472,75</t>
-  </si>
-  <si>
-    <t>133,45</t>
-  </si>
-  <si>
-    <t>422,30</t>
-  </si>
-  <si>
-    <t>328,67</t>
-  </si>
-  <si>
-    <t>37,03</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>95.397,74</t>
-  </si>
-  <si>
-    <t>14.940,00</t>
-  </si>
-  <si>
-    <t>15.628,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>1.060,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>4.782,69</t>
-  </si>
-  <si>
-    <t>1.029,60</t>
-  </si>
-  <si>
-    <t>795,15</t>
-  </si>
-  <si>
-    <t>406,40</t>
-  </si>
-  <si>
-    <t>1.637,00</t>
-  </si>
-  <si>
-    <t>1.727,00</t>
-  </si>
-  <si>
-    <t>131.505,20</t>
-  </si>
-  <si>
-    <t>7.320,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>4.686,34</t>
-  </si>
-  <si>
-    <t>384,00</t>
-  </si>
-  <si>
-    <t>12.577,50</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>2.850,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>16.080,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>484,00</t>
-  </si>
-  <si>
-    <t>135,00</t>
-  </si>
-  <si>
-    <t>42.955,00</t>
-  </si>
-  <si>
-    <t>3.680,00</t>
-  </si>
-  <si>
-    <t>12.336,50</t>
-  </si>
-  <si>
-    <t>285,95</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>1.197,30</t>
-  </si>
-  <si>
-    <t>5.352,00</t>
-  </si>
-  <si>
-    <t>1.125,00</t>
-  </si>
-  <si>
-    <t>2.014,80</t>
-  </si>
-  <si>
-    <t>9.700,00</t>
-  </si>
-  <si>
-    <t>4.155,50</t>
-  </si>
-  <si>
-    <t>1.285,42</t>
-  </si>
-  <si>
-    <t>637,66</t>
-  </si>
-  <si>
-    <t>35,92</t>
-  </si>
-  <si>
-    <t>2,60</t>
-  </si>
-  <si>
-    <t>3.527,80</t>
-  </si>
-  <si>
-    <t>210,00</t>
-  </si>
-  <si>
-    <t>4.755,32</t>
-  </si>
-  <si>
-    <t>140,00</t>
-  </si>
-  <si>
-    <t>1.825,00</t>
-  </si>
-  <si>
-    <t>237,00</t>
-  </si>
-  <si>
-    <t>279,64</t>
-  </si>
-  <si>
-    <t>780,00</t>
-  </si>
-  <si>
-    <t>309,20</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>1.558,50</t>
-  </si>
-  <si>
-    <t>120,40</t>
-  </si>
-  <si>
-    <t>16.431,00</t>
-  </si>
-  <si>
-    <t>12.905,50</t>
-  </si>
-  <si>
-    <t>3.256,00</t>
-  </si>
-  <si>
-    <t>470,00</t>
-  </si>
-  <si>
-    <t>475,00</t>
-  </si>
-  <si>
-    <t>1.726,80</t>
-  </si>
-  <si>
-    <t>4.144,99</t>
-  </si>
-  <si>
-    <t>7.813,49</t>
-  </si>
-  <si>
-    <t>17.920,00</t>
-  </si>
-  <si>
-    <t>690.471,47</t>
-  </si>
-  <si>
-    <t>890,00</t>
-  </si>
-  <si>
-    <t>216.500,00</t>
-  </si>
-  <si>
-    <t>52.000,00</t>
-  </si>
-  <si>
-    <t>25.905,75</t>
-  </si>
-  <si>
-    <t>61.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>89.500,00</t>
-  </si>
-  <si>
-    <t>145.260,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>223.000,00</t>
-  </si>
-  <si>
-    <t>111.500,00</t>
-  </si>
-  <si>
-    <t>5.950,00</t>
-  </si>
-  <si>
-    <t>617.607,56</t>
-  </si>
-  <si>
-    <t>502.317,08</t>
-  </si>
-  <si>
-    <t>11.077,12</t>
-  </si>
-  <si>
-    <t>62.400,00</t>
-  </si>
-  <si>
-    <t>1.053.000,00</t>
-  </si>
-  <si>
-    <t>1.855,00</t>
+    <t>3774.00</t>
+  </si>
+  <si>
+    <t>43490.00</t>
+  </si>
+  <si>
+    <t>458000.00</t>
+  </si>
+  <si>
+    <t>42531.50</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>17.45</t>
+  </si>
+  <si>
+    <t>2036.42</t>
+  </si>
+  <si>
+    <t>121000.00</t>
+  </si>
+  <si>
+    <t>2999.99</t>
+  </si>
+  <si>
+    <t>31165.08</t>
+  </si>
+  <si>
+    <t>87334.15</t>
+  </si>
+  <si>
+    <t>29750.00</t>
+  </si>
+  <si>
+    <t>39478.94</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>5955.70</t>
+  </si>
+  <si>
+    <t>9624.44</t>
+  </si>
+  <si>
+    <t>493.00</t>
+  </si>
+  <si>
+    <t>13630.75</t>
+  </si>
+  <si>
+    <t>9810.00</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>179.00</t>
+  </si>
+  <si>
+    <t>797.00</t>
+  </si>
+  <si>
+    <t>238.90</t>
+  </si>
+  <si>
+    <t>529.22</t>
+  </si>
+  <si>
+    <t>84.99</t>
+  </si>
+  <si>
+    <t>51.90</t>
+  </si>
+  <si>
+    <t>256.56</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>57290.00</t>
+  </si>
+  <si>
+    <t>42338.32</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>2384.58</t>
+  </si>
+  <si>
+    <t>28.80</t>
+  </si>
+  <si>
+    <t>25.04</t>
+  </si>
+  <si>
+    <t>2297.09</t>
+  </si>
+  <si>
+    <t>756.00</t>
+  </si>
+  <si>
+    <t>21024.50</t>
+  </si>
+  <si>
+    <t>39627.25</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>16177.15</t>
+  </si>
+  <si>
+    <t>801.00</t>
+  </si>
+  <si>
+    <t>295.22</t>
+  </si>
+  <si>
+    <t>8778.76</t>
+  </si>
+  <si>
+    <t>618.00</t>
+  </si>
+  <si>
+    <t>980.00</t>
+  </si>
+  <si>
+    <t>1394.49</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>41.60</t>
+  </si>
+  <si>
+    <t>830.00</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>1397.20</t>
+  </si>
+  <si>
+    <t>287.84</t>
+  </si>
+  <si>
+    <t>23.63</t>
+  </si>
+  <si>
+    <t>45.21</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>115.12</t>
+  </si>
+  <si>
+    <t>13.30</t>
+  </si>
+  <si>
+    <t>1936.10</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>208.35</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>899.64</t>
+  </si>
+  <si>
+    <t>40.48</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>3750.00</t>
+  </si>
+  <si>
+    <t>92.35</t>
+  </si>
+  <si>
+    <t>3035.00</t>
+  </si>
+  <si>
+    <t>1920.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>1134.00</t>
+  </si>
+  <si>
+    <t>6924.96</t>
+  </si>
+  <si>
+    <t>80.40</t>
+  </si>
+  <si>
+    <t>2881.40</t>
+  </si>
+  <si>
+    <t>1201.71</t>
+  </si>
+  <si>
+    <t>746.25</t>
+  </si>
+  <si>
+    <t>109.70</t>
+  </si>
+  <si>
+    <t>335.00</t>
+  </si>
+  <si>
+    <t>311.88</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>8288.00</t>
+  </si>
+  <si>
+    <t>7820.66</t>
+  </si>
+  <si>
+    <t>960.00</t>
+  </si>
+  <si>
+    <t>302.50</t>
+  </si>
+  <si>
+    <t>1355.00</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>51312.00</t>
+  </si>
+  <si>
+    <t>8360.00</t>
+  </si>
+  <si>
+    <t>34437.00</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>98090.00</t>
+  </si>
+  <si>
+    <t>4574.70</t>
+  </si>
+  <si>
+    <t>1485.00</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>899.00</t>
+  </si>
+  <si>
+    <t>367.50</t>
+  </si>
+  <si>
+    <t>1508.00</t>
+  </si>
+  <si>
+    <t>246.80</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>57.95</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>282.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>62000.00</t>
+  </si>
+  <si>
+    <t>222570.00</t>
+  </si>
+  <si>
+    <t>4650.60</t>
+  </si>
+  <si>
+    <t>3.79</t>
+  </si>
+  <si>
+    <t>19.20</t>
+  </si>
+  <si>
+    <t>49.68</t>
+  </si>
+  <si>
+    <t>15654.25</t>
+  </si>
+  <si>
+    <t>178.92</t>
+  </si>
+  <si>
+    <t>18.80</t>
+  </si>
+  <si>
+    <t>1522.64</t>
+  </si>
+  <si>
+    <t>21.45</t>
+  </si>
+  <si>
+    <t>2896.00</t>
+  </si>
+  <si>
+    <t>460.00</t>
+  </si>
+  <si>
+    <t>305.00</t>
+  </si>
+  <si>
+    <t>31.40</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>1415.70</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>216.00</t>
+  </si>
+  <si>
+    <t>1648.75</t>
+  </si>
+  <si>
+    <t>3237.00</t>
+  </si>
+  <si>
+    <t>20587.59</t>
+  </si>
+  <si>
+    <t>4571.15</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>472.75</t>
+  </si>
+  <si>
+    <t>133.45</t>
+  </si>
+  <si>
+    <t>422.30</t>
+  </si>
+  <si>
+    <t>328.67</t>
+  </si>
+  <si>
+    <t>37.03</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>95397.74</t>
+  </si>
+  <si>
+    <t>14940.00</t>
+  </si>
+  <si>
+    <t>15628.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>1060.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>4782.69</t>
+  </si>
+  <si>
+    <t>1029.60</t>
+  </si>
+  <si>
+    <t>795.15</t>
+  </si>
+  <si>
+    <t>406.40</t>
+  </si>
+  <si>
+    <t>1637.00</t>
+  </si>
+  <si>
+    <t>1727.00</t>
+  </si>
+  <si>
+    <t>131505.20</t>
+  </si>
+  <si>
+    <t>7320.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>4686.34</t>
+  </si>
+  <si>
+    <t>384.00</t>
+  </si>
+  <si>
+    <t>12577.50</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>2850.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>16080.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>484.00</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>42955.00</t>
+  </si>
+  <si>
+    <t>3680.00</t>
+  </si>
+  <si>
+    <t>12336.50</t>
+  </si>
+  <si>
+    <t>285.95</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>1197.30</t>
+  </si>
+  <si>
+    <t>5352.00</t>
+  </si>
+  <si>
+    <t>1125.00</t>
+  </si>
+  <si>
+    <t>2014.80</t>
+  </si>
+  <si>
+    <t>9700.00</t>
+  </si>
+  <si>
+    <t>4155.50</t>
+  </si>
+  <si>
+    <t>1285.42</t>
+  </si>
+  <si>
+    <t>637.66</t>
+  </si>
+  <si>
+    <t>35.92</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>3527.80</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>4755.32</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>1825.00</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>279.64</t>
+  </si>
+  <si>
+    <t>780.00</t>
+  </si>
+  <si>
+    <t>309.20</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>1558.50</t>
+  </si>
+  <si>
+    <t>120.40</t>
+  </si>
+  <si>
+    <t>16431.00</t>
+  </si>
+  <si>
+    <t>12905.50</t>
+  </si>
+  <si>
+    <t>3256.00</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>475.00</t>
+  </si>
+  <si>
+    <t>1726.80</t>
+  </si>
+  <si>
+    <t>4144.99</t>
+  </si>
+  <si>
+    <t>7813.49</t>
+  </si>
+  <si>
+    <t>17920.00</t>
+  </si>
+  <si>
+    <t>690471.47</t>
+  </si>
+  <si>
+    <t>890.00</t>
+  </si>
+  <si>
+    <t>216500.00</t>
+  </si>
+  <si>
+    <t>52000.00</t>
+  </si>
+  <si>
+    <t>25905.75</t>
+  </si>
+  <si>
+    <t>61000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>89500.00</t>
+  </si>
+  <si>
+    <t>145260.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>223000.00</t>
+  </si>
+  <si>
+    <t>111500.00</t>
+  </si>
+  <si>
+    <t>5950.00</t>
+  </si>
+  <si>
+    <t>617607.56</t>
+  </si>
+  <si>
+    <t>502317.08</t>
+  </si>
+  <si>
+    <t>11077.12</t>
+  </si>
+  <si>
+    <t>62400.00</t>
+  </si>
+  <si>
+    <t>1053000.00</t>
+  </si>
+  <si>
+    <t>1855.00</t>
   </si>
 </sst>
 </file>
